--- a/com.sevenrmartsupermarket/src/main/resources/testdata-files/ContactDetails.xlsx
+++ b/com.sevenrmartsupermarket/src/main/resources/testdata-files/ContactDetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14505" windowHeight="2940"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14505" windowHeight="2715"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedSheet" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,10 @@
     <t>john@example.com</t>
   </si>
   <si>
-    <t>9.pm</t>
+    <t>chry Street</t>
   </si>
   <si>
-    <t>ABC gyugyuStreet</t>
+    <t>10.pm</t>
   </si>
 </sst>
 </file>
@@ -377,30 +377,33 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1">
-        <v>9876500</v>
+        <v>987650090</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" s="1">
-        <v>1000</v>
+        <v>8000</v>
       </c>
     </row>
   </sheetData>
